--- a/automate/media/dummy_data.xlsx
+++ b/automate/media/dummy_data.xlsx
@@ -461,12 +461,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AIRTRCX9IOK42B4</t>
+          <t>AIRQP34HY69U196</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R3OYCTG4JTCZ</t>
+          <t>3DZ4TLIOG6KF</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,24 +486,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>21.187.2.17</t>
+          <t>122.223.17.218</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>86.48.0.132</t>
+          <t>88.141.56.21</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AIRZNKAALWBQH8V</t>
+          <t>AIRK3MSHCRCUIQH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CN1N6RJ0SHAD</t>
+          <t>GUVAMP88UVUJ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,24 +523,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>243.163.99.187</t>
+          <t>165.149.72.113</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>236.0.109.241</t>
+          <t>197.24.63.217</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AIRHPCF9ESHXPQZ</t>
+          <t>AIRHF5D306J2HBB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZTTJG1HPZE98</t>
+          <t>KQI5QCV3PS3R</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,24 +560,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>29.68.148.205</t>
+          <t>249.156.61.144</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>145.62.158.156</t>
+          <t>109.192.220.214</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AIRKV5NQV6J2SO1</t>
+          <t>AIRPE2NYI5CWC1R</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NR5919VV3W2V</t>
+          <t>RQ9TXFY2PKVS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,24 +597,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>145.90.221.218</t>
+          <t>42.177.136.173</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>93.70.255.250</t>
+          <t>67.215.139.203</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AIRF6WNVGMRT1Q1</t>
+          <t>AIRP7FHOF6A799M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4C2VJHQMCVFY</t>
+          <t>UBD227TUPV4A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,24 +634,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>90.166.247.42</t>
+          <t>129.19.68.147</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>28.228.150.240</t>
+          <t>146.237.109.49</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AIR152R1HCIO5QW</t>
+          <t>AIRITZXH5I68A4T</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MB3IW3I7H0WC</t>
+          <t>6HJJYQ1M1BF1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,24 +671,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>43.205.6.118</t>
+          <t>193.203.159.53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>97.151.81.105</t>
+          <t>94.250.112.186</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AIROAUHZM9UQZ0K</t>
+          <t>AIRULICCTYVS2R5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9EG7B6L6G1KY</t>
+          <t>V6J9RLCU9GJ3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -708,24 +708,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>252.117.45.29</t>
+          <t>194.205.39.81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>116.37.8.160</t>
+          <t>88.245.62.153</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AIR5VAXOHJ3PA02</t>
+          <t>AIR18HJPKF0ZPCH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L3C1E8DYOKH3</t>
+          <t>JT8WU882WWW1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -745,24 +745,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>26.42.122.11</t>
+          <t>178.131.100.193</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10.205.73.168</t>
+          <t>247.140.197.24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AIR6A41ZNA194Q3</t>
+          <t>AIRT5SJRVOXQ59F</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>URSP5X20LQPO</t>
+          <t>ZFX7BJLV61BO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -782,24 +782,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>121.35.187.99</t>
+          <t>96.104.59.208</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>212.148.171.158</t>
+          <t>17.11.17.253</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AIRGZJLUFKVC1OT</t>
+          <t>AIR1QK5ACIYEZ9H</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ZLY54PQJ4EHW</t>
+          <t>OW3VKIO4SV65</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -819,24 +819,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>181.245.177.40</t>
+          <t>163.5.102.183</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15.52.41.75</t>
+          <t>71.165.146.85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AIRAQWR71BTYHXW</t>
+          <t>AIRQYTWW4ZU074H</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NG793T8I3ZN8</t>
+          <t>1BZ7OZZ9CLCJ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -856,24 +856,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>44.130.176.53</t>
+          <t>58.62.159.167</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>255.5.162.109</t>
+          <t>66.200.188.93</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AIRZRV4YYD7BI1X</t>
+          <t>AIRKQIQR2LHSRCX</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WYKJDR8FUTYB</t>
+          <t>HO2OPNPRN173</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -893,24 +893,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>127.134.177.91</t>
+          <t>185.205.74.110</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>174.75.213.13</t>
+          <t>197.109.233.200</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AIR47CW6TSPV49P</t>
+          <t>AIR2CVE9DSBD19O</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IITJ419W3GBA</t>
+          <t>F4X7DPPT11ZO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -930,24 +930,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>160.99.225.85</t>
+          <t>149.188.113.129</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24.84.37.249</t>
+          <t>220.205.139.83</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AIRC93UV8WKX8OW</t>
+          <t>AIR811LNP9SLY8M</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UY33ZKB4YKGP</t>
+          <t>GS6Y4I6T98US</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -967,24 +967,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>159.125.213.156</t>
+          <t>161.16.114.225</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>74.242.13.229</t>
+          <t>139.211.20.76</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AIR97OQFZB0OR5C</t>
+          <t>AIRNVO44U7CGVPX</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VCC6XRSRRIZM</t>
+          <t>W8XKV5LCMM6G</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1004,24 +1004,24 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>144.52.69.146</t>
+          <t>49.74.179.232</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>228.130.71.45</t>
+          <t>3.215.176.173</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AIRPFEZL1467BPC</t>
+          <t>AIRK4I1N9V1LB4O</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>J451HQNMLQX6</t>
+          <t>NHBCUQLHIKHR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1041,24 +1041,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>93.178.71.37</t>
+          <t>166.115.114.104</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>182.144.158.82</t>
+          <t>2.150.158.95</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AIRPIWQAI8GBGCK</t>
+          <t>AIRAZYZD3J6LK9Z</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6DWXLP5V4ULC</t>
+          <t>OO1B4O0Y7YY7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1078,24 +1078,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>139.41.193.32</t>
+          <t>137.241.205.254</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>122.91.212.246</t>
+          <t>98.78.204.114</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AIRW0H15YQJPCR7</t>
+          <t>AIRWMW2NIPVJGX7</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RTAUAS8LQKQ5</t>
+          <t>TRSRO7ZH45FO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1115,24 +1115,24 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>91.51.234.110</t>
+          <t>143.223.106.64</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>72.84.112.167</t>
+          <t>143.200.85.244</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AIRZ82Y74OOFKPQ</t>
+          <t>AIR353T56EI41HY</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RZZXE3362SLV</t>
+          <t>MF9JBSCTQITK</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1152,24 +1152,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>236.25.198.189</t>
+          <t>226.198.32.26</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>232.104.67.230</t>
+          <t>199.164.178.158</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AIRBL0TAB7OT7GR</t>
+          <t>AIR6NXBY87GS5CH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8C65GJ1QIVLS</t>
+          <t>WTOHX1CTQQIS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1189,24 +1189,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>26.60.180.197</t>
+          <t>186.62.116.50</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>211.207.140.204</t>
+          <t>130.248.7.74</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AIRB5JHSAZIXTVC</t>
+          <t>AIRM4TASW4NQN7A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ZX5LXM2BKANK</t>
+          <t>1XA7IHXR3VST</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>7.149.83.172</t>
+          <t>21.49.184.71</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>74.166.198.31</t>
+          <t>122.94.174.224</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AIRD366ZFUAI58O</t>
+          <t>AIR5E76FBPZ3SZN</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0UMHKT9Q7GJT</t>
+          <t>YHNXRBRX6W77</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1263,24 +1263,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>62.95.122.82</t>
+          <t>162.57.211.250</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>169.93.60.7</t>
+          <t>251.194.233.92</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AIRUWS3Z0NULJ6A</t>
+          <t>AIR6X6DYPAAQKE9</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KK53ZCLCQDP7</t>
+          <t>VDAMRULGTVXQ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1300,24 +1300,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>39.206.151.5</t>
+          <t>163.43.200.174</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>232.138.232.163</t>
+          <t>252.218.209.162</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AIRA7NI8WG18HH2</t>
+          <t>AIRXQRCL1U9J0R2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5UD1P4Z5D0K7</t>
+          <t>25K8RGDZ0K60</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1337,24 +1337,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>77.164.210.219</t>
+          <t>13.7.213.113</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>34.229.233.165</t>
+          <t>74.19.251.187</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AIRMQ2GITUO1UWO</t>
+          <t>AIR78BSFOUZSJP2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P94ZM2TQML07</t>
+          <t>J5RVZ69RFE4P</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1374,24 +1374,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>58.83.10.179</t>
+          <t>14.129.177.197</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>93.71.245.194</t>
+          <t>1.208.206.198</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AIR01O2GPSLV45P</t>
+          <t>AIRZEVD3W33M7M5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>YC2FW4FCIN5R</t>
+          <t>95VYT65IVN1F</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1411,24 +1411,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>235.237.65.26</t>
+          <t>157.76.241.238</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>58.201.225.233</t>
+          <t>248.58.244.128</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AIR5A685ME3ORSB</t>
+          <t>AIRMXPH972N28QZ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5QLAQINXYNE3</t>
+          <t>CDJ3XFY16W2N</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1448,24 +1448,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>182.123.165.33</t>
+          <t>199.250.34.20</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23.235.117.108</t>
+          <t>188.149.56.145</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AIR9KKBHEHZWBCT</t>
+          <t>AIRN5RF9FXXDGLV</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Y4WXM9GR4F59</t>
+          <t>0I2KJL87P5E7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1485,24 +1485,24 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>145.82.0.152</t>
+          <t>165.187.8.171</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>103.24.77.229</t>
+          <t>88.245.13.80</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AIRKT1J01WQQDSW</t>
+          <t>AIRBAIRIUXQ4MV3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9R8AEBZTMAZS</t>
+          <t>4HQCML6D4VHH</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1522,24 +1522,24 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>167.49.138.58</t>
+          <t>189.250.85.165</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>202.227.144.119</t>
+          <t>91.137.15.42</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AIRQ8VVBUKXX4DK</t>
+          <t>AIR1I2OEESNU4IE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RNSEVBEVU6OF</t>
+          <t>QEZ76R5P9EHP</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1559,24 +1559,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>243.132.162.190</t>
+          <t>100.225.68.188</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>17.43.76.75</t>
+          <t>146.54.162.163</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AIRK2X59B9A3ISM</t>
+          <t>AIR73DB81XGTZ83</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9JFB1WONKJ71</t>
+          <t>ILFOQPXJ7BKK</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1596,24 +1596,24 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>38.188.250.178</t>
+          <t>40.103.65.81</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>153.160.232.139</t>
+          <t>65.131.64.209</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AIRL3JY789JDSYN</t>
+          <t>AIR3TYBFO8CJTCE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TMAEFF287BAI</t>
+          <t>M1HJNCHCAVFE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1633,24 +1633,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>116.92.163.138</t>
+          <t>169.34.146.158</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>63.25.75.168</t>
+          <t>143.175.206.198</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AIRQ4ULV31M2CF2</t>
+          <t>AIR97GCWBBLH6JQ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>N5YDXUYQ3IXU</t>
+          <t>MJ93ATWZYC5I</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1670,24 +1670,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>243.180.12.197</t>
+          <t>102.100.119.64</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>139.100.92.165</t>
+          <t>233.31.40.129</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AIR7S8ZS23LMIZ4</t>
+          <t>AIRNQFZPXYVXDYG</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>43QEQUE2BBGY</t>
+          <t>P4VZTDJ01AYF</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1707,24 +1707,24 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>162.241.189.46</t>
+          <t>92.59.245.117</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>181.4.60.214</t>
+          <t>203.202.183.66</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AIRTB5PC2KC3I7B</t>
+          <t>AIRAYOEDUH124ME</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>UP92XSW9QZTN</t>
+          <t>O2ULLUKRD5WB</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1744,24 +1744,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>172.138.156.202</t>
+          <t>89.63.152.101</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26.115.181.188</t>
+          <t>18.47.240.98</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AIRJOBDCE98XJPV</t>
+          <t>AIR3T2UTQFNLBX1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>D1GLVN1KE8TO</t>
+          <t>2P36RP7LZUN8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1781,24 +1781,24 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>146.107.154.12</t>
+          <t>15.195.100.41</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>28.157.24.158</t>
+          <t>87.247.198.136</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AIR5ZMEC7EH4UC7</t>
+          <t>AIRJWVYPUR71L12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DK1HBS5XOJIV</t>
+          <t>P4Z85MH0IR2E</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1818,24 +1818,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>226.174.220.205</t>
+          <t>239.118.65.218</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>180.247.162.35</t>
+          <t>28.191.156.71</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AIRRVUO0H6LBEUB</t>
+          <t>AIRRG7GY1OA4R3G</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FXRM674DHY6C</t>
+          <t>OAGVJ24M4LXN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1855,24 +1855,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>27.54.219.3</t>
+          <t>129.231.145.22</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>192.233.50.110</t>
+          <t>115.159.173.209</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AIRTRWG6HPY3SCB</t>
+          <t>AIR5IGT342G1BVN</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>N3JNJITYAGT9</t>
+          <t>7XMTZ2UR7M6L</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1892,24 +1892,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>157.198.60.141</t>
+          <t>227.71.178.127</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>217.107.197.96</t>
+          <t>149.124.249.162</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AIRSL1JXV3K0VFL</t>
+          <t>AIRNCZTKMSAF9OD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>D8LVA6XZMJT3</t>
+          <t>NTT2WP3P6HUI</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1929,24 +1929,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>63.223.60.250</t>
+          <t>195.248.228.54</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>150.45.223.245</t>
+          <t>108.156.71.193</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AIRW5Q7PKVARM3B</t>
+          <t>AIRKB6JMV9ZXUPJ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HJAAA0I0MHKM</t>
+          <t>GUFEV69FGQT9</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1966,24 +1966,24 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>155.250.124.15</t>
+          <t>66.49.190.51</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>65.236.210.227</t>
+          <t>118.149.84.61</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AIRVE9QKV46XKH0</t>
+          <t>AIRQT2UDR93A04B</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>QUNJIG7M52LI</t>
+          <t>4F9DY00LMNH1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2003,24 +2003,24 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>116.43.204.50</t>
+          <t>32.184.12.195</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>210.82.186.51</t>
+          <t>100.3.101.195</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AIRL9VOGUFTQJOH</t>
+          <t>AIRJKQZA59BV4YI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>426RSICJHNV3</t>
+          <t>ZPREDGQW9S6Q</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2040,24 +2040,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>113.169.120.177</t>
+          <t>203.128.213.11</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>109.183.14.209</t>
+          <t>224.148.157.32</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AIR9V2QG6Q6ZFNJ</t>
+          <t>AIRG78E19FG3UHA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HRSMPJE3MK58</t>
+          <t>PKOKB7Z54KHL</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2077,24 +2077,24 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>76.228.33.13</t>
+          <t>238.90.144.188</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>125.119.99.248</t>
+          <t>77.10.14.152</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AIRANEDB2J2BFSG</t>
+          <t>AIR2EPJTCPT4V4L</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>N0VK8YK3KB4S</t>
+          <t>R9TPVQ9SD1UF</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2114,24 +2114,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>198.57.91.248</t>
+          <t>129.143.133.232</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>44.107.24.47</t>
+          <t>108.23.249.156</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AIRZZJQSWMJ10RP</t>
+          <t>AIRP44QPZ9J2RRF</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>9G0JT6GCDNI8</t>
+          <t>C8WDBT4UV8XA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2151,24 +2151,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>130.208.202.85</t>
+          <t>132.73.41.49</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>93.123.240.239</t>
+          <t>116.93.93.146</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AIRLUFI6F9AYBNR</t>
+          <t>AIRTSNL5TLQ2U4L</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>YPF5NOTC6JDE</t>
+          <t>19ZUH87KE8GK</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2188,24 +2188,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>95.13.170.93</t>
+          <t>16.222.175.210</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>181.155.7.237</t>
+          <t>27.224.174.120</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AIRYC2VA660QSHH</t>
+          <t>AIR4IP0KJKOHA5I</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CJIUFGZW8WV9</t>
+          <t>54HYVF80DA49</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>145.130.182.168</t>
+          <t>172.198.41.233</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>167.130.140.11</t>
+          <t>43.247.119.134</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AIRFR04JRUUPMXF</t>
+          <t>AIREPZGDPI5NMVY</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5VH7CSFJZ78F</t>
+          <t>C5J99Q7RZTBP</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2262,24 +2262,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>33.69.214.13</t>
+          <t>122.230.227.36</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>63.20.210.181</t>
+          <t>127.51.164.231</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AIRCXY9HNT5FIKN</t>
+          <t>AIR1JGWXPWQ72TE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>9W7LKEIVHP8V</t>
+          <t>H5ULLE5DU2LE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2299,24 +2299,24 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.89.115.61</t>
+          <t>60.163.213.53</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>206.129.243.21</t>
+          <t>33.85.189.74</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AIRRN5VZL80H3H3</t>
+          <t>AIROMF5UBWOCMHC</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TUZEOI1BY5PH</t>
+          <t>OXSDZ7OA70QD</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2336,24 +2336,24 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>195.180.252.248</t>
+          <t>244.25.130.40</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>156.214.166.186</t>
+          <t>197.169.142.90</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AIRCY5TKJG4XPA6</t>
+          <t>AIRF79O4U0X4Z4I</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>68Y0V6ZUBTQH</t>
+          <t>KI6HWYPA3VDR</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2373,24 +2373,24 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>90.95.210.173</t>
+          <t>199.185.181.42</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>38.27.109.139</t>
+          <t>34.37.35.5</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AIREVKJY0PIBRF4</t>
+          <t>AIRTTIYQ4EDKPEP</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KEPIRNJW7I4G</t>
+          <t>T6O0GA4B3NXJ</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2410,24 +2410,24 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>106.142.42.23</t>
+          <t>55.92.230.136</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>142.93.31.213</t>
+          <t>70.48.196.171</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AIRBD7O91YYT776</t>
+          <t>AIR6T09TQ5JH1YF</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>WE629HQOCZ6Y</t>
+          <t>025DIPU1K0I6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2447,24 +2447,24 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>86.132.237.183</t>
+          <t>217.228.87.39</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>174.11.163.175</t>
+          <t>240.131.137.48</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AIREHN8TP158QPC</t>
+          <t>AIR8P4LL8YT6T87</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HT51HJB0RFB9</t>
+          <t>KOQQABJ9ORR2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2484,24 +2484,24 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>83.193.174.147</t>
+          <t>132.79.11.80</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>126.200.6.120</t>
+          <t>228.43.216.108</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>AIRMJYVHX5MY6ID</t>
+          <t>AIRG6IM1KYJRISQ</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NXQ8PPYF2IZD</t>
+          <t>PDLXJXDVGPVU</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2521,24 +2521,24 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>234.213.46.200</t>
+          <t>106.125.153.186</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>30.70.88.137</t>
+          <t>50.39.130.118</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AIRA2XBN87NKSCC</t>
+          <t>AIRRYGXTGUWPRVQ</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>A7EKY0PNS08B</t>
+          <t>LN9DCJG5I6BR</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2558,24 +2558,24 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>159.112.186.190</t>
+          <t>59.252.124.232</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>200.22.90.88</t>
+          <t>149.183.134.170</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AIRV3DULOZ3PPOX</t>
+          <t>AIRL37QZNIOY1GM</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2K53ND29Q5NW</t>
+          <t>4UNRI6AP748V</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2595,24 +2595,24 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>231.10.173.82</t>
+          <t>215.99.22.29</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>146.5.27.162</t>
+          <t>205.204.194.60</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AIR2UU9FLSF9HPS</t>
+          <t>AIR2E5ORB6LQYJI</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5GLDNCHXVX6J</t>
+          <t>9DD6T6N8UKLH</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2632,24 +2632,24 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>52.195.50.233</t>
+          <t>221.117.118.99</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>209.164.222.178</t>
+          <t>111.70.212.90</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AIRRQGH8YS97OXK</t>
+          <t>AIRKSQ9P4DCRWT1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2QWBC8AP5E9J</t>
+          <t>04YWWWQZBN97</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2669,24 +2669,24 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>178.173.130.71</t>
+          <t>56.84.10.185</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>166.218.25.209</t>
+          <t>214.207.210.71</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AIR8XVZ35ZRQWAP</t>
+          <t>AIRQ80HIEYW6OI5</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SUQ761SZ3F3N</t>
+          <t>Z1FDXDNSPLJF</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2706,24 +2706,24 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>75.113.3.191</t>
+          <t>253.111.159.125</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>8.31.6.170</t>
+          <t>70.110.27.51</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AIR3SCBSCLXNJ1Y</t>
+          <t>AIR5T6BZ3TK00OA</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S5VZYPQJ2V0Y</t>
+          <t>3VSF7PSTW0H5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2743,24 +2743,24 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>166.136.152.51</t>
+          <t>248.177.148.87</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>145.11.75.214</t>
+          <t>11.77.44.24</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AIRHU7UDJ956VFG</t>
+          <t>AIR6HGYY0KV6JTU</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GNR2H947T066</t>
+          <t>YDW4M95159YJ</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2780,24 +2780,24 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>72.237.94.75</t>
+          <t>136.112.108.159</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>146.8.91.170</t>
+          <t>72.170.160.144</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AIRYE89ZOPZ6QOM</t>
+          <t>AIR1H62CT3ID7ZO</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>D0SHDQFBKW6H</t>
+          <t>F9NE35709UDI</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2817,24 +2817,24 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>172.24.174.130</t>
+          <t>68.154.184.51</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>172.41.48.116</t>
+          <t>216.15.229.62</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>AIRCVZE8KQM94VX</t>
+          <t>AIR0MT75YWA6NEI</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CP2CT1GIBTJT</t>
+          <t>6GLP7X61932R</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2854,24 +2854,24 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>12.72.52.38</t>
+          <t>20.167.168.240</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>194.15.47.52</t>
+          <t>4.4.86.57</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AIR8QJDTVTJE5FD</t>
+          <t>AIRK233LXRYI06R</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5GGKAJJ6K3DO</t>
+          <t>CMZUF82X4WZY</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2891,24 +2891,24 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>95.37.200.206</t>
+          <t>239.43.236.194</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>29.185.176.219</t>
+          <t>70.127.66.45</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AIRRHLGD4ALLTRM</t>
+          <t>AIR75AV7I2K533R</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>D3UBLIUGYFXQ</t>
+          <t>R8O09U44XYQX</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2928,24 +2928,24 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>99.234.11.216</t>
+          <t>24.227.125.11</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>47.253.135.174</t>
+          <t>38.228.24.73</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>AIRTJZNJODVI4C5</t>
+          <t>AIRPNY3SMN380CI</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MVY8CVF2FMFG</t>
+          <t>TWKSNBZT8C3D</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2965,24 +2965,24 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>38.227.170.91</t>
+          <t>214.93.239.26</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>105.192.45.139</t>
+          <t>199.11.193.52</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AIRF35QHPZIT5LN</t>
+          <t>AIRYHPUUNWTGPUK</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>OFQV4AXXRTQK</t>
+          <t>IWKL4THBX7UG</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3002,24 +3002,24 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>207.33.147.142</t>
+          <t>247.120.149.133</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>73.8.236.57</t>
+          <t>97.84.20.194</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AIRT0OFIW25K7KO</t>
+          <t>AIR67JFHP1N0S4P</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>M08Q4395QUKG</t>
+          <t>3GLO2581Q4C5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3039,24 +3039,24 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>176.175.249.224</t>
+          <t>107.8.123.38</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2.161.206.250</t>
+          <t>4.223.29.208</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AIR8POG2LOJSIE4</t>
+          <t>AIRAPCVFZKKUICZ</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>QC9UYB85FON9</t>
+          <t>M6SMD7T7FKCE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3076,24 +3076,24 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>96.79.30.162</t>
+          <t>156.168.94.187</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>116.92.29.44</t>
+          <t>101.40.253.95</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AIRBR4YK7XUIRQB</t>
+          <t>AIRO09F98S7SVLD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2MMRRA0OT09G</t>
+          <t>BGRVDOJ4Y67Y</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3113,24 +3113,24 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>14.150.125.184</t>
+          <t>107.196.161.12</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>224.130.226.86</t>
+          <t>34.186.228.243</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AIRNJ52UW4R8OKG</t>
+          <t>AIRSQNY43U5N4KM</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>YZ59MN78QYSC</t>
+          <t>B1JYSH6XF06U</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3150,24 +3150,24 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>137.27.68.53</t>
+          <t>172.123.204.18</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>187.247.37.209</t>
+          <t>47.201.28.202</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AIRDJROVHYK2B9A</t>
+          <t>AIR7TKRLWWNSPPV</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R1GGW6F5YQUE</t>
+          <t>ASU452L79JNY</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3187,24 +3187,24 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>35.164.158.243</t>
+          <t>73.90.189.8</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>234.191.213.222</t>
+          <t>6.126.239.255</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AIRV6DDI66DR9PQ</t>
+          <t>AIRJT1MQR9WAO04</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>W83YMAK9L8D9</t>
+          <t>5NNUWN2R7BIO</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3224,24 +3224,24 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4.237.23.129</t>
+          <t>134.215.178.211</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10.255.126.193</t>
+          <t>113.206.70.229</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AIR0WCUVWMPEYEN</t>
+          <t>AIRUG7OISAEMR69</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8XQYEIPWHRX4</t>
+          <t>HU5975D0YPAR</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3261,24 +3261,24 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>60.24.107.124</t>
+          <t>137.53.173.127</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>190.8.130.6</t>
+          <t>160.244.242.82</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AIRF4LATU1QKY50</t>
+          <t>AIRICZUCMWX09GO</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SBB85YO4BFJA</t>
+          <t>GW6GJT8F5Z2R</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3298,24 +3298,24 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>237.64.125.218</t>
+          <t>10.126.232.111</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>48.197.45.176</t>
+          <t>98.151.169.85</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AIRUYG04LQWWPP0</t>
+          <t>AIRL8BZFK95I5JE</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EIWV8WD7IVBD</t>
+          <t>WQF24CP4CSUV</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3335,24 +3335,24 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>107.11.230.120</t>
+          <t>60.212.231.31</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>44.197.42.22</t>
+          <t>4.220.198.133</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AIRDAOV1BDWA5GR</t>
+          <t>AIRIGC42NUSWASX</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0SGMGYFC8KE6</t>
+          <t>SOZQ6H7T9KBJ</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3372,24 +3372,24 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>234.238.197.55</t>
+          <t>180.106.219.158</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>233.67.242.7</t>
+          <t>228.66.92.59</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AIREK2N6RCGLUDT</t>
+          <t>AIRH0HX0H112SPZ</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3CB467YFW70F</t>
+          <t>ILE6PRY95VCF</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3409,24 +3409,24 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>209.94.28.153</t>
+          <t>236.165.248.231</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>70.156.191.98</t>
+          <t>20.240.107.50</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AIRKSKOMLT25HLA</t>
+          <t>AIRT0SKCTI7E79I</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6A2O8XGUOIBU</t>
+          <t>U5N0G7EXK1DK</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3446,24 +3446,24 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>66.232.194.99</t>
+          <t>130.225.3.105</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>96.185.203.51</t>
+          <t>143.93.195.142</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AIRLMA7IRH1QZ3O</t>
+          <t>AIRJZHL09FIFFN6</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1Q3RNAMT6SQK</t>
+          <t>FEX1D3HV9ZAM</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3483,24 +3483,24 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>117.225.137.210</t>
+          <t>6.216.181.41</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>173.187.58.184</t>
+          <t>176.207.37.118</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AIRC9HB3IHHXJBV</t>
+          <t>AIRJ0SX9WASGXH9</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>6L8ETACXXLST</t>
+          <t>P3DTNNIMLAPG</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3520,24 +3520,24 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>89.96.116.184</t>
+          <t>180.10.6.161</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>79.4.125.142</t>
+          <t>115.247.164.32</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AIROG1YNYBNRP8T</t>
+          <t>AIR6AYJ24DOQ8W9</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>QB35ENDDO46T</t>
+          <t>FGT83TXRVGNR</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3557,24 +3557,24 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>68.27.240.236</t>
+          <t>56.50.24.163</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.194.165.50</t>
+          <t>235.83.148.200</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AIRU3IOAZQ8NYNA</t>
+          <t>AIRF8CS6M5272TU</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>D1UNI34GZOPJ</t>
+          <t>55W96Y35RWAO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3594,24 +3594,24 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>245.78.103.153</t>
+          <t>82.165.81.69</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>168.144.111.152</t>
+          <t>64.48.95.86</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AIRJ7WA8J2DBPRP</t>
+          <t>AIRZDUWJSLW2WBM</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4BCQHVCMM1U6</t>
+          <t>ACCD6VS50LX0</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3631,24 +3631,24 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>7.154.214.108</t>
+          <t>253.166.99.76</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>134.231.39.51</t>
+          <t>138.133.4.166</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AIR41ST3FWPMLQ7</t>
+          <t>AIR0VQQ1W5FFFRT</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FBGDJU7XEHWS</t>
+          <t>UMFW4I7FQ0F6</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3668,24 +3668,24 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>30.37.58.39</t>
+          <t>19.129.226.35</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>157.105.112.63</t>
+          <t>121.133.137.245</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AIRNG1SPZ7IGKJL</t>
+          <t>AIRR9WSUN1VBL0R</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>88QW0YJ1RUFY</t>
+          <t>N3MHDNK2ORWK</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3705,24 +3705,24 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>55.154.142.218</t>
+          <t>134.204.1.131</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>193.94.206.211</t>
+          <t>44.67.72.186</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AIR364L0R8ZUJMD</t>
+          <t>AIRUWHB06SHK63Z</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>UG1K9DZ4TDMO</t>
+          <t>R2NNXRIX71AG</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3742,24 +3742,24 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>52.66.48.29</t>
+          <t>110.112.92.109</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>119.177.154.199</t>
+          <t>246.249.215.46</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AIRPNLHBFV89DQW</t>
+          <t>AIRSCU9BYGZNVUX</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>15UB37PZ3CBD</t>
+          <t>K8H6W9MI1J8A</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3779,24 +3779,24 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>217.253.206.210</t>
+          <t>34.225.80.252</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>81.188.7.199</t>
+          <t>104.60.192.85</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>AIRCXRU85MARHLB</t>
+          <t>AIRRIVUCJL5TH63</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PY2NV6ULL7TP</t>
+          <t>32UC4JW3XM5N</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3816,24 +3816,24 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>37.138.156.251</t>
+          <t>55.225.184.6</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>251.136.185.114</t>
+          <t>214.155.162.167</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AIR99CSWB52R6RJ</t>
+          <t>AIRVBDX2VN31JMF</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>O57SKF104N73</t>
+          <t>0RTQFDTBI4F3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3853,24 +3853,24 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>229.171.168.35</t>
+          <t>246.40.136.190</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>114.48.31.235</t>
+          <t>8.123.27.209</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>AIR58R892KHRZNP</t>
+          <t>AIRJV5BQHEV9DWJ</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0NYB5NU7QW6Z</t>
+          <t>0TFZE3HJTZXB</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3890,24 +3890,24 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>29.77.98.83</t>
+          <t>10.20.162.111</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>111.7.23.179</t>
+          <t>156.228.123.191</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AIRT5TR9ZS78OA1</t>
+          <t>AIR2JBAKDCWDT6D</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>L71G8UMLV5ZL</t>
+          <t>6119UIELV769</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3927,24 +3927,24 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>35.149.63.43</t>
+          <t>134.172.240.181</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>26.158.205.215</t>
+          <t>108.143.205.212</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AIRAZZ5CPR4W7ZV</t>
+          <t>AIRMPZU3DPQV7PD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>41K1OD71B9D3</t>
+          <t>OBS5YMEIVA48</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3964,24 +3964,24 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>6.73.0.52</t>
+          <t>199.208.5.213</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>115.162.174.38</t>
+          <t>234.58.28.49</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>AIRL1DHU63SSI87</t>
+          <t>AIRI76OV3XEBJTK</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3JN1Q2LI9JFL</t>
+          <t>BYAGHN7H44RY</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4001,24 +4001,24 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>167.164.0.228</t>
+          <t>31.242.171.138</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>3.212.162.200</t>
+          <t>239.25.228.188</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>AIRQ2KTG2Y2FBJO</t>
+          <t>AIRMI87QU5OO8O8</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5V79S07SH5V1</t>
+          <t>VZ1ZBY2EEH1E</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4038,24 +4038,24 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>18.191.210.41</t>
+          <t>205.58.108.96</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>255.70.5.217</t>
+          <t>116.178.97.195</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AIR9HPP7BGKPEJ8</t>
+          <t>AIRB4FBS6TO8BA7</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>G2FFB0BELG9J</t>
+          <t>IO95HFKYLAQ6</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4075,24 +4075,24 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>105.95.123.90</t>
+          <t>118.247.243.94</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>247.51.44.97</t>
+          <t>234.215.18.83</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AIR8QIIHNB72CJH</t>
+          <t>AIRIXSGPJ4VPESO</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JQFP653M4CB5</t>
+          <t>W6856MCKR8EU</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4112,24 +4112,24 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>184.241.231.47</t>
+          <t>81.45.170.192</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>167.88.40.221</t>
+          <t>29.187.182.251</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>AIR5AVB1IUR8LGB</t>
+          <t>AIR87AEG1ZR6VKF</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>50IJSVPTKFLT</t>
+          <t>Q5FJV3Z4D4P3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4149,12 +4149,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>214.164.207.65</t>
+          <t>71.173.132.138</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>233.207.187.2</t>
+          <t>210.208.32.6</t>
         </is>
       </c>
     </row>

--- a/automate/media/dummy_data.xlsx
+++ b/automate/media/dummy_data.xlsx
@@ -461,12 +461,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AIR8NAASMA5VM5U</t>
+          <t>AIR8DFXZEJ6FF2G</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>58M0E9GMIGVX</t>
+          <t>E8ADUF1PK06W</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,24 +486,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>68.14.240.5</t>
+          <t>66.161.253.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>117.241.38.244</t>
+          <t>82.118.213.56</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AIRKMXQDMWBRC0L</t>
+          <t>AIRPATQX4RYZ1MF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V5SVBLSWP93E</t>
+          <t>OH6Y6OF25EPE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,24 +523,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>176.1.1.155</t>
+          <t>250.111.10.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>197.14.141.73</t>
+          <t>48.165.94.204</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AIRPWF3L9QY94NF</t>
+          <t>AIRF3RA6G77WN2B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DHJNKJJ5L362</t>
+          <t>DCLAKQ2I35C5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,24 +560,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>225.188.190.169</t>
+          <t>119.176.92.195</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>197.216.94.83</t>
+          <t>67.229.160.56</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AIRZTZQTXELFQX8</t>
+          <t>AIR4CJW7UP0PLUG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VW29XYGPX27M</t>
+          <t>DXSEE5TNF7EC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,24 +597,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>139.187.130.16</t>
+          <t>231.170.160.177</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>229.252.51.133</t>
+          <t>59.141.230.145</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AIRA5VFY2KHZJQ9</t>
+          <t>AIRJFZWUHE7V6UO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>98EAQXWA7JXW</t>
+          <t>G6AR35D96VMZ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,24 +634,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>26.33.245.251</t>
+          <t>136.131.161.222</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>168.135.50.54</t>
+          <t>161.182.57.170</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AIRF9XI9XPGWEAD</t>
+          <t>AIR5BQI4B430VOD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7URVJLLZKPSH</t>
+          <t>SCNCX2AAHCMO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,24 +671,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>186.19.39.78</t>
+          <t>168.150.100.223</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>159.204.85.39</t>
+          <t>129.244.72.253</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AIR6RB9ERXP50AD</t>
+          <t>AIRO7042WIHQZGW</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A93SLJT3XYWS</t>
+          <t>R3UTKMLGZ4PO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -708,24 +708,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>51.39.74.19</t>
+          <t>107.194.72.64</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>206.47.108.20</t>
+          <t>109.48.164.92</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AIRJLBCHIRYYKBO</t>
+          <t>AIRCEJASULI7Y2X</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LBH3XS3D7Z81</t>
+          <t>TQW2BRI5MJVS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -745,24 +745,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>102.196.94.187</t>
+          <t>70.7.189.165</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>139.182.196.134</t>
+          <t>240.148.183.241</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AIR0PX017BWHH15</t>
+          <t>AIR6DLXHC3JHM01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S5AUZW4W5BAB</t>
+          <t>PZUQGWCG3G6S</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -782,24 +782,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>125.106.255.45</t>
+          <t>100.230.239.215</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>52.70.25.28</t>
+          <t>156.11.83.18</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AIRBME1AOZLTQ5K</t>
+          <t>AIRFSUFEBVBBOIV</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9NV6JRWO6DLM</t>
+          <t>GX54RA4TDVVY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -819,24 +819,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>181.223.250.158</t>
+          <t>39.8.235.147</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>86.44.152.97</t>
+          <t>49.248.210.50</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AIRO98J09A46GY0</t>
+          <t>AIR83U9ZRE726AB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P0MDBO3LYNQH</t>
+          <t>ZPSQI0GHO6OQ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -856,24 +856,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>49.194.110.162</t>
+          <t>82.219.193.180</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14.174.20.158</t>
+          <t>24.253.60.199</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AIRGVWJU0RF93F3</t>
+          <t>AIRCJC1MS37DKZP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KF7PPX5ICF1I</t>
+          <t>CJB5V8NX9DF6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -893,24 +893,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>174.2.182.174</t>
+          <t>123.219.34.86</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>168.87.41.156</t>
+          <t>189.161.255.217</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AIRI4P759868MJB</t>
+          <t>AIRKAIUPQ0XRCKT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHI56J39NFGO</t>
+          <t>BHN78U0PYLRR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -930,24 +930,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>200.248.162.159</t>
+          <t>173.204.142.224</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>142.60.218.79</t>
+          <t>174.155.180.221</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AIR8WABUIUXH5EW</t>
+          <t>AIRLCFBGWWVDWNL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FWDIEPZ7OUR2</t>
+          <t>DIX8IY6AK6N9</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -967,24 +967,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>130.169.7.67</t>
+          <t>130.53.186.108</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>77.19.119.232</t>
+          <t>189.116.185.58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AIRKXWIXOUE7LRP</t>
+          <t>AIR9A5CRL162WDG</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A75ES172527N</t>
+          <t>2OMDV3APXMR8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1004,24 +1004,24 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.244.165.3</t>
+          <t>110.15.145.52</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14.9.77.69</t>
+          <t>125.2.171.103</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AIRTSHIW3LLYA21</t>
+          <t>AIRKXM6T25KOXOT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>QFNM5F8IF313</t>
+          <t>GG217KWIYV0S</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1041,24 +1041,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>181.117.49.196</t>
+          <t>69.237.170.41</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>213.147.179.145</t>
+          <t>222.146.122.246</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AIRW1UAGU6KL7DB</t>
+          <t>AIR0IPCOYV3NTZO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DY8C7H1GR736</t>
+          <t>04F52RB36L8Z</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1078,24 +1078,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>20.130.130.165</t>
+          <t>195.206.88.250</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>206.250.192.46</t>
+          <t>220.34.189.5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AIR9KCQ2TY2UOZQ</t>
+          <t>AIR4CKTWT6PLKU5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6PLS8UUXOS52</t>
+          <t>9IBLHI5H0UWL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1115,24 +1115,24 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>255.145.36.229</t>
+          <t>2.6.169.125</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>196.63.183.5</t>
+          <t>98.146.48.181</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AIR1OWD54G71C4F</t>
+          <t>AIRX90L86DXLQNK</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>F0P8M3X373KY</t>
+          <t>W1ACT1EAQFKG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1152,24 +1152,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>44.2.100.215</t>
+          <t>178.40.70.226</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>55.174.11.24</t>
+          <t>139.93.87.130</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AIROMEUW1E3CCEU</t>
+          <t>AIRR70W7KW06JRK</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HU6PPZQAUGD6</t>
+          <t>PZ02X9JAPKON</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1189,24 +1189,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>82.101.25.115</t>
+          <t>250.102.223.204</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>127.63.155.248</t>
+          <t>55.23.90.79</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AIRU0DFEMC7SIEV</t>
+          <t>AIRB30E5AUQMOU6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UA2UKQVOV4SE</t>
+          <t>7FYO6S01WR6N</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>77.156.12.71</t>
+          <t>148.83.184.22</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>125.46.80.219</t>
+          <t>98.45.192.244</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AIR7ZUZKLBV4SJU</t>
+          <t>AIR5W0QJOMQ4ET2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B64BQ7V804WE</t>
+          <t>FFSWNKSV3YEH</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1263,24 +1263,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>40.241.190.152</t>
+          <t>212.162.166.162</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>230.198.152.132</t>
+          <t>253.242.216.15</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AIRKSP7JUANM4OH</t>
+          <t>AIR9M4R1LGDW049</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0TMMX4NORLFL</t>
+          <t>EYJ31MKCYYKN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1300,24 +1300,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>190.85.97.223</t>
+          <t>159.244.168.33</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>215.162.84.229</t>
+          <t>210.160.236.188</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AIR9WGR2P18E4Z7</t>
+          <t>AIRC2OOSJUB2GCZ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>X2HKARPCZH85</t>
+          <t>CJ5GJJ5Q72C2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1337,24 +1337,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>79.214.57.43</t>
+          <t>129.21.229.245</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>177.36.130.6</t>
+          <t>233.224.36.252</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AIRB7AUNGJ9RW87</t>
+          <t>AIRCOQNI6LARLW6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>H7RC12FFVUF7</t>
+          <t>6RWZY5XUY7UF</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1374,24 +1374,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>59.191.6.55</t>
+          <t>144.26.191.230</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>80.160.16.229</t>
+          <t>30.64.147.111</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AIR1DQQ0KGH3LAE</t>
+          <t>AIRKDR8Y6R6ZKXM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2B1ENHSMUJM4</t>
+          <t>NA9BVOTBLMB6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1411,24 +1411,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>215.115.97.235</t>
+          <t>129.144.227.63</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4.145.156.255</t>
+          <t>204.56.62.72</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AIR6GAG6LTZBX9Z</t>
+          <t>AIRPLBND7FPT3H8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CFB3J2UU6PA6</t>
+          <t>DV5VLD6R9CMO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1448,24 +1448,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>104.92.97.201</t>
+          <t>156.78.114.253</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>89.156.86.239</t>
+          <t>211.155.44.92</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AIRE3IBH0PWU4US</t>
+          <t>AIR47KOWGSU6JDT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C2ZRQ5TOOHFB</t>
+          <t>76V4PAXYJV99</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1485,24 +1485,24 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>65.244.197.151</t>
+          <t>23.157.165.218</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>141.245.70.62</t>
+          <t>21.146.159.246</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AIRBYIRSTXDXMYB</t>
+          <t>AIRDZGU2ZC311XD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QO6TVJCJNHO1</t>
+          <t>YSP5ACSSVLE2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1522,24 +1522,24 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>103.120.181.108</t>
+          <t>144.192.0.188</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>17.152.52.55</t>
+          <t>88.61.254.124</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AIRBQVFC34N0EMV</t>
+          <t>AIRMCL7AQ196NGV</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C5ML3WMAMNRP</t>
+          <t>FIJEGTC2Q2HA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1559,24 +1559,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>164.33.185.155</t>
+          <t>173.200.2.40</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>83.13.233.216</t>
+          <t>138.223.251.71</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AIRED7811M0QF0N</t>
+          <t>AIRV4PSWO3VB0SL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>F9F5Q75A0NXB</t>
+          <t>M340MEAZFBNX</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1596,24 +1596,24 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>187.3.185.216</t>
+          <t>10.87.183.64</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>186.79.183.218</t>
+          <t>169.49.249.80</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AIRPV68SXRHFAQJ</t>
+          <t>AIRM6HSSXEXB47B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>YEP23COOOIYG</t>
+          <t>MBQRT9KPA1Y8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1633,24 +1633,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>87.196.238.168</t>
+          <t>63.67.162.244</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>234.4.214.197</t>
+          <t>165.213.230.95</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AIRA5GR13XHMTPO</t>
+          <t>AIRVL6KHG7NQS0I</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>D4SKHD77RLBS</t>
+          <t>8DOUNPV2PI52</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1670,24 +1670,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>77.45.30.56</t>
+          <t>51.74.118.168</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>148.249.166.83</t>
+          <t>231.251.71.31</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AIR5FIC5N59WO5A</t>
+          <t>AIRB5W77RCRDA8X</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>E3QZ5X4FQN01</t>
+          <t>759A93PR06WA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1707,24 +1707,24 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>37.17.71.214</t>
+          <t>178.104.79.151</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>146.177.166.104</t>
+          <t>239.67.238.2</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AIR6W5HT6UG41UO</t>
+          <t>AIR6VL51VP2BQZ6</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>JJFLPT0CKS2G</t>
+          <t>KXOGOON3UR2I</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1744,24 +1744,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>87.221.0.244</t>
+          <t>123.217.162.183</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>210.13.90.75</t>
+          <t>213.207.66.145</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AIRNJPBWLRH2PQC</t>
+          <t>AIRRUCBZL3LSPCE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RLY1V354PZFE</t>
+          <t>1CL5IY1803NG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1781,24 +1781,24 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>147.39.0.175</t>
+          <t>90.2.218.49</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>132.208.150.132</t>
+          <t>215.202.62.175</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AIR1ETKNELYJ6VI</t>
+          <t>AIRDD50I05E2FWJ</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>76IOTMPCJQOQ</t>
+          <t>ZMSQMT9HOCC0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1818,24 +1818,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>86.138.169.236</t>
+          <t>154.113.193.212</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>180.40.73.34</t>
+          <t>107.81.90.207</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AIRHXTOSUJ0TWBX</t>
+          <t>AIRQOF1TR1W0TBB</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9U1R22SGTMM8</t>
+          <t>6QC1BEDYYA46</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1855,24 +1855,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>137.169.224.241</t>
+          <t>153.215.50.180</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>89.37.68.147</t>
+          <t>30.244.248.246</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AIR57GWRB1TKCH4</t>
+          <t>AIRU8KBRPCFVIOO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FY7KZ4SO865X</t>
+          <t>U2N7VX8PNVNI</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1892,24 +1892,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>237.144.215.224</t>
+          <t>155.188.33.23</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>88.230.17.162</t>
+          <t>219.182.113.235</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AIRDR6AFS3DRE4A</t>
+          <t>AIR74TZJ6X6ECRN</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>UKP105HGX9IN</t>
+          <t>CI0S5XQ50BMI</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1929,24 +1929,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>153.117.158.118</t>
+          <t>27.16.5.90</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>69.120.123.4</t>
+          <t>88.186.214.165</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AIRDJ06D6ADHX33</t>
+          <t>AIRA93GQIHDHL72</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0SGIEHYOQEXR</t>
+          <t>595VEEPH4QX3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1966,24 +1966,24 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>15.125.157.130</t>
+          <t>105.208.248.247</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>71.97.9.92</t>
+          <t>211.168.116.75</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AIR2EPYUW74RIBJ</t>
+          <t>AIRLSCYLSCLPZ23</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>WEBP4HB690Q9</t>
+          <t>OAI6OF6ZK3AC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2003,24 +2003,24 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>168.34.163.250</t>
+          <t>56.162.140.248</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>60.74.63.183</t>
+          <t>254.23.8.21</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AIRNKFKPT0U8RSJ</t>
+          <t>AIR0AEV02QVQMNZ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>XWMXMLG3CO3O</t>
+          <t>0WN6H4D6NQQN</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2040,24 +2040,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>250.34.145.54</t>
+          <t>93.171.130.29</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>11.45.20.87</t>
+          <t>57.38.194.219</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AIR4V65A7LIKQIH</t>
+          <t>AIR1JVCYOWP1W25</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EXH0J803HBLQ</t>
+          <t>7PQ6LMI8WI9D</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2077,24 +2077,24 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>87.7.132.251</t>
+          <t>62.76.15.33</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>101.58.45.233</t>
+          <t>28.12.20.170</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AIRL2A54QT29GK1</t>
+          <t>AIRKYUWZM2KNM11</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FPDL41TWGHGB</t>
+          <t>GKMT5GH0GJKW</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2114,24 +2114,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>197.16.232.24</t>
+          <t>228.217.223.104</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>163.93.60.114</t>
+          <t>7.17.10.210</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AIRHP2PFT2PU0Y4</t>
+          <t>AIREG4KR5Z9PR7Q</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R4QVAPMS4ZQI</t>
+          <t>ZMR2HKH5BANW</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2151,24 +2151,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>102.130.192.129</t>
+          <t>158.110.165.92</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>239.172.125.106</t>
+          <t>11.169.11.40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AIRU0ZAF28WG0RZ</t>
+          <t>AIRBQ4XC7Y79OJO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SOVMJQX9LPBK</t>
+          <t>BT6XL1P8CUZ0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2188,24 +2188,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>154.69.14.163</t>
+          <t>90.174.98.233</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>104.62.54.212</t>
+          <t>86.230.237.114</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AIR2P3Z5X9JAQFZ</t>
+          <t>AIRJTKR7KJ3AN3O</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>QQICJYEPKK65</t>
+          <t>KADPATIGPAYU</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>251.127.75.107</t>
+          <t>74.220.137.174</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>247.119.12.248</t>
+          <t>252.116.81.118</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AIRVI5BZOGTMD1G</t>
+          <t>AIRCVTCXJSHVZHM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AHQHMION078J</t>
+          <t>KEQSSKMBVUJ4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2262,24 +2262,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>53.238.149.73</t>
+          <t>156.210.149.96</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>103.53.171.146</t>
+          <t>183.108.240.72</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AIREVD5ZK6HZVK0</t>
+          <t>AIREVQG4TKK934L</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3RKVII3FMMMV</t>
+          <t>EJ3LV36YERO3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2299,12 +2299,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>207.83.67.255</t>
+          <t>26.177.52.10</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>155.143.52.178</t>
+          <t>95.163.79.95</t>
         </is>
       </c>
     </row>

--- a/automate/media/dummy_data.xlsx
+++ b/automate/media/dummy_data.xlsx
@@ -461,12 +461,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AIR8DFXZEJ6FF2G</t>
+          <t>AIR0P36EKRR8MIW</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>E8ADUF1PK06W</t>
+          <t>00BUGH60NDHK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,24 +486,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>66.161.253.27</t>
+          <t>47.156.7.163</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>82.118.213.56</t>
+          <t>88.180.215.188</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AIRPATQX4RYZ1MF</t>
+          <t>AIR1T02BAOQNAFM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OH6Y6OF25EPE</t>
+          <t>2MJA5AX3SKTS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,24 +523,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>250.111.10.23</t>
+          <t>81.205.195.179</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>48.165.94.204</t>
+          <t>26.147.72.17</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AIRF3RA6G77WN2B</t>
+          <t>AIRFG0B42I0I8ZQ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DCLAKQ2I35C5</t>
+          <t>6U94BFSB6MET</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,24 +560,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>119.176.92.195</t>
+          <t>253.219.58.126</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>67.229.160.56</t>
+          <t>133.212.151.193</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AIR4CJW7UP0PLUG</t>
+          <t>AIRSCSKUJQO5SLM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DXSEE5TNF7EC</t>
+          <t>2A7D8DPDMS90</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,24 +597,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>231.170.160.177</t>
+          <t>140.134.47.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>59.141.230.145</t>
+          <t>164.232.13.111</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AIRJFZWUHE7V6UO</t>
+          <t>AIRUY3IIU50EQ4Z</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G6AR35D96VMZ</t>
+          <t>EZJMGYMTC3VX</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,24 +634,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>136.131.161.222</t>
+          <t>198.150.53.132</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>161.182.57.170</t>
+          <t>214.164.119.15</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AIR5BQI4B430VOD</t>
+          <t>AIR78B6U4C8Q4WX</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SCNCX2AAHCMO</t>
+          <t>55KXGGILHNCM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,24 +671,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>168.150.100.223</t>
+          <t>230.140.7.102</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>129.244.72.253</t>
+          <t>249.202.48.85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AIRO7042WIHQZGW</t>
+          <t>AIR42K3ECNYGC7O</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R3UTKMLGZ4PO</t>
+          <t>0KR0RSXFMDOX</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -708,24 +708,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>107.194.72.64</t>
+          <t>27.167.136.150</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>109.48.164.92</t>
+          <t>40.106.250.80</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AIRCEJASULI7Y2X</t>
+          <t>AIRZ19HL01SMU11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TQW2BRI5MJVS</t>
+          <t>Z08QWFOFNNGT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -745,24 +745,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>70.7.189.165</t>
+          <t>54.89.36.74</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>240.148.183.241</t>
+          <t>125.206.112.9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AIR6DLXHC3JHM01</t>
+          <t>AIR3B5OGRC6C2UU</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PZUQGWCG3G6S</t>
+          <t>UYUIC4L5ESA7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -782,24 +782,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>100.230.239.215</t>
+          <t>160.93.124.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>156.11.83.18</t>
+          <t>133.50.247.243</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AIRFSUFEBVBBOIV</t>
+          <t>AIRC7LU5LW3AMM6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GX54RA4TDVVY</t>
+          <t>ISMJ1POIG0HC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -819,24 +819,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>39.8.235.147</t>
+          <t>83.17.56.41</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>49.248.210.50</t>
+          <t>139.147.24.90</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AIR83U9ZRE726AB</t>
+          <t>AIR9ATZG53RV2GR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ZPSQI0GHO6OQ</t>
+          <t>M4JURPF1487D</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -856,24 +856,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>82.219.193.180</t>
+          <t>147.23.186.239</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24.253.60.199</t>
+          <t>75.240.25.167</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AIRCJC1MS37DKZP</t>
+          <t>AIRGBL7A589FUA3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CJB5V8NX9DF6</t>
+          <t>4TZOSI3RGCAX</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -893,24 +893,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>123.219.34.86</t>
+          <t>61.244.52.131</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>189.161.255.217</t>
+          <t>85.217.105.193</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AIRKAIUPQ0XRCKT</t>
+          <t>AIRD4T70XXNBC0V</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BHN78U0PYLRR</t>
+          <t>S6I0STHXN9CY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -930,24 +930,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>173.204.142.224</t>
+          <t>130.62.66.41</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>174.155.180.221</t>
+          <t>53.50.248.115</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AIRLCFBGWWVDWNL</t>
+          <t>AIR4K8FQ3VX0Q1P</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DIX8IY6AK6N9</t>
+          <t>FPYDQM40IBC4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -967,24 +967,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>130.53.186.108</t>
+          <t>165.173.225.227</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>189.116.185.58</t>
+          <t>160.30.141.188</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AIR9A5CRL162WDG</t>
+          <t>AIRGSV90DI1AUTZ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2OMDV3APXMR8</t>
+          <t>8V3716K33IAF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1004,24 +1004,24 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>110.15.145.52</t>
+          <t>34.146.86.125</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>125.2.171.103</t>
+          <t>224.212.54.187</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AIRKXM6T25KOXOT</t>
+          <t>AIR37P4GLQ953HH</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GG217KWIYV0S</t>
+          <t>8V19V6QEXK2X</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1041,24 +1041,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>69.237.170.41</t>
+          <t>28.36.122.18</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>222.146.122.246</t>
+          <t>94.20.105.75</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AIR0IPCOYV3NTZO</t>
+          <t>AIRP2W2G89UOON4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>04F52RB36L8Z</t>
+          <t>17A6O8OUN4WX</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1078,24 +1078,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>195.206.88.250</t>
+          <t>61.200.156.183</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>220.34.189.5</t>
+          <t>107.100.199.40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AIR4CKTWT6PLKU5</t>
+          <t>AIRQWPELPCVBUIE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9IBLHI5H0UWL</t>
+          <t>9CIE64215YDN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1115,24 +1115,24 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.6.169.125</t>
+          <t>67.45.99.99</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>98.146.48.181</t>
+          <t>219.65.220.249</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AIRX90L86DXLQNK</t>
+          <t>AIRW27RO95PK0KQ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>W1ACT1EAQFKG</t>
+          <t>ACC5YUKILW2M</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1152,24 +1152,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>178.40.70.226</t>
+          <t>226.12.157.175</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>139.93.87.130</t>
+          <t>60.181.60.248</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AIRR70W7KW06JRK</t>
+          <t>AIRRAQ8BCWSNH49</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PZ02X9JAPKON</t>
+          <t>1EJN6DXE0SFC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1189,24 +1189,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>250.102.223.204</t>
+          <t>246.31.18.208</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>55.23.90.79</t>
+          <t>72.82.218.250</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AIRB30E5AUQMOU6</t>
+          <t>AIRZHNROO62C3LA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7FYO6S01WR6N</t>
+          <t>BLHPDUXOI7LS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>148.83.184.22</t>
+          <t>19.85.3.5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>98.45.192.244</t>
+          <t>131.30.30.80</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AIR5W0QJOMQ4ET2</t>
+          <t>AIRD9WZSF2DAVZA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FFSWNKSV3YEH</t>
+          <t>CJSZ76XMXQED</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1263,24 +1263,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>212.162.166.162</t>
+          <t>8.27.243.205</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>253.242.216.15</t>
+          <t>69.253.188.37</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AIR9M4R1LGDW049</t>
+          <t>AIR2A65GABCZP0U</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EYJ31MKCYYKN</t>
+          <t>QVLU7LWA8CIO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1300,24 +1300,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>159.244.168.33</t>
+          <t>27.217.185.127</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>210.160.236.188</t>
+          <t>219.255.4.39</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AIRC2OOSJUB2GCZ</t>
+          <t>AIR2IVR86U8HTG9</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CJ5GJJ5Q72C2</t>
+          <t>XZTB2O23B01S</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1337,24 +1337,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>129.21.229.245</t>
+          <t>34.136.216.67</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>233.224.36.252</t>
+          <t>156.222.1.148</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AIRCOQNI6LARLW6</t>
+          <t>AIRYSTCMUG77C63</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6RWZY5XUY7UF</t>
+          <t>HKEZXGT2Z1MN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1374,24 +1374,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>144.26.191.230</t>
+          <t>29.194.171.66</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30.64.147.111</t>
+          <t>211.48.68.52</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AIRKDR8Y6R6ZKXM</t>
+          <t>AIRLY1RCF2CA70M</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NA9BVOTBLMB6</t>
+          <t>QLP8TX9JY75O</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1411,24 +1411,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>129.144.227.63</t>
+          <t>153.24.155.21</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>204.56.62.72</t>
+          <t>157.64.89.194</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AIRPLBND7FPT3H8</t>
+          <t>AIREYQVJQ5VLU1F</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DV5VLD6R9CMO</t>
+          <t>UL4P398YG2VL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1448,24 +1448,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>156.78.114.253</t>
+          <t>152.11.186.247</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>211.155.44.92</t>
+          <t>163.46.193.211</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AIR47KOWGSU6JDT</t>
+          <t>AIRW80YKKDBJ5M7</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>76V4PAXYJV99</t>
+          <t>J92IJ7NF9MWI</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1485,24 +1485,24 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>23.157.165.218</t>
+          <t>65.246.95.229</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21.146.159.246</t>
+          <t>72.27.46.245</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AIRDZGU2ZC311XD</t>
+          <t>AIRUOXDHN2HOUAK</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>YSP5ACSSVLE2</t>
+          <t>3XC7ETV9YUYC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1522,24 +1522,24 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>144.192.0.188</t>
+          <t>12.221.162.193</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>88.61.254.124</t>
+          <t>94.174.73.129</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AIRMCL7AQ196NGV</t>
+          <t>AIRKH7HK90S2C2D</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FIJEGTC2Q2HA</t>
+          <t>LJN28HH96JQS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1559,24 +1559,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>173.200.2.40</t>
+          <t>154.207.36.85</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>138.223.251.71</t>
+          <t>215.67.115.44</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AIRV4PSWO3VB0SL</t>
+          <t>AIRN4RWOIZ4AZ1Y</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M340MEAZFBNX</t>
+          <t>FBPTDY4BUK9L</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1596,24 +1596,24 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10.87.183.64</t>
+          <t>239.60.232.152</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>169.49.249.80</t>
+          <t>149.134.146.93</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AIRM6HSSXEXB47B</t>
+          <t>AIRAIHANHB9YNZS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MBQRT9KPA1Y8</t>
+          <t>ZDWTCX7SS6FD</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1633,24 +1633,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>63.67.162.244</t>
+          <t>192.177.44.140</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>165.213.230.95</t>
+          <t>57.106.72.183</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AIRVL6KHG7NQS0I</t>
+          <t>AIRB2B5334TZQVJ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>8DOUNPV2PI52</t>
+          <t>TOH66S0ZQD4E</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1670,24 +1670,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>51.74.118.168</t>
+          <t>253.98.214.148</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>231.251.71.31</t>
+          <t>150.76.135.239</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AIRB5W77RCRDA8X</t>
+          <t>AIRGGUUE2WTQX7O</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>759A93PR06WA</t>
+          <t>YPLE7M62ZLMO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1707,24 +1707,24 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>178.104.79.151</t>
+          <t>51.74.96.50</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>239.67.238.2</t>
+          <t>231.133.69.124</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AIR6VL51VP2BQZ6</t>
+          <t>AIRI46BFE4UDA3W</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KXOGOON3UR2I</t>
+          <t>VQZTAYMHB5FB</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1744,24 +1744,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>123.217.162.183</t>
+          <t>179.246.81.7</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>213.207.66.145</t>
+          <t>162.133.35.184</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AIRRUCBZL3LSPCE</t>
+          <t>AIRXCWWTNPU03EV</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1CL5IY1803NG</t>
+          <t>WUVUH5WYA6DR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1781,24 +1781,24 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>90.2.218.49</t>
+          <t>28.91.23.217</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>215.202.62.175</t>
+          <t>183.19.31.123</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AIRDD50I05E2FWJ</t>
+          <t>AIRKOLJK9VPV1K7</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ZMSQMT9HOCC0</t>
+          <t>TG6ZLKTV4PEC</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1818,24 +1818,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>154.113.193.212</t>
+          <t>215.157.232.89</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>107.81.90.207</t>
+          <t>116.98.191.132</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AIRQOF1TR1W0TBB</t>
+          <t>AIRFHKFMS0B5XMJ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6QC1BEDYYA46</t>
+          <t>FVCEB319DASO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1855,24 +1855,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>153.215.50.180</t>
+          <t>201.184.178.229</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>30.244.248.246</t>
+          <t>147.213.124.186</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AIRU8KBRPCFVIOO</t>
+          <t>AIRR0U80Y9E3ATG</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>U2N7VX8PNVNI</t>
+          <t>NN85ED9NEO45</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1892,24 +1892,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>155.188.33.23</t>
+          <t>112.245.235.154</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>219.182.113.235</t>
+          <t>201.249.90.114</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AIR74TZJ6X6ECRN</t>
+          <t>AIRQNELID0M3ORT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CI0S5XQ50BMI</t>
+          <t>K7C1KQM5EYVS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1929,24 +1929,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>27.16.5.90</t>
+          <t>228.250.32.40</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>88.186.214.165</t>
+          <t>207.121.52.141</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AIRA93GQIHDHL72</t>
+          <t>AIRGGWZ22X7IIF4</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>595VEEPH4QX3</t>
+          <t>43IABG18W8N1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1966,24 +1966,24 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>105.208.248.247</t>
+          <t>43.128.167.96</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>211.168.116.75</t>
+          <t>113.1.172.214</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AIRLSCYLSCLPZ23</t>
+          <t>AIRIVU5PQDWGQ0N</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>OAI6OF6ZK3AC</t>
+          <t>LETUCV4O88TT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2003,24 +2003,24 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>56.162.140.248</t>
+          <t>122.242.171.176</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>254.23.8.21</t>
+          <t>217.117.80.3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AIR0AEV02QVQMNZ</t>
+          <t>AIRQAS8H3V1LL5J</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0WN6H4D6NQQN</t>
+          <t>VV1N72BDTNUJ</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2040,24 +2040,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>93.171.130.29</t>
+          <t>114.81.40.171</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>57.38.194.219</t>
+          <t>43.214.247.115</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AIR1JVCYOWP1W25</t>
+          <t>AIRWROWBFHRO3WE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7PQ6LMI8WI9D</t>
+          <t>JPLV3R5INA7U</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2077,24 +2077,24 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>62.76.15.33</t>
+          <t>50.124.117.70</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>28.12.20.170</t>
+          <t>140.194.69.64</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AIRKYUWZM2KNM11</t>
+          <t>AIR70GEILUYLZ8P</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GKMT5GH0GJKW</t>
+          <t>9B3NFU01TUDO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2114,24 +2114,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>228.217.223.104</t>
+          <t>45.166.17.203</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>7.17.10.210</t>
+          <t>205.161.2.136</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AIREG4KR5Z9PR7Q</t>
+          <t>AIR1J04AISD2KP8</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ZMR2HKH5BANW</t>
+          <t>YJ7ZANNWGTUK</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2151,24 +2151,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>158.110.165.92</t>
+          <t>107.246.129.57</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11.169.11.40</t>
+          <t>131.156.249.34</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AIRBQ4XC7Y79OJO</t>
+          <t>AIRW0DZ67G8Z9PY</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BT6XL1P8CUZ0</t>
+          <t>61F21BWDL7QH</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2188,24 +2188,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>90.174.98.233</t>
+          <t>108.229.29.156</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>86.230.237.114</t>
+          <t>176.4.158.205</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AIRJTKR7KJ3AN3O</t>
+          <t>AIRQ4UH34E8SK36</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>KADPATIGPAYU</t>
+          <t>NUYH5MWD4407</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>74.220.137.174</t>
+          <t>77.159.205.85</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>252.116.81.118</t>
+          <t>178.36.76.203</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AIRCVTCXJSHVZHM</t>
+          <t>AIRADMXVWITASP7</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>KEQSSKMBVUJ4</t>
+          <t>CAQOSWVP75UP</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2262,24 +2262,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>156.210.149.96</t>
+          <t>36.39.17.8</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>183.108.240.72</t>
+          <t>248.13.116.13</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AIREVQG4TKK934L</t>
+          <t>AIRWQ6CA6CKY47T</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EJ3LV36YERO3</t>
+          <t>RX9TH7TB3DEZ</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2299,12 +2299,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>26.177.52.10</t>
+          <t>71.81.238.184</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>95.163.79.95</t>
+          <t>50.165.72.202</t>
         </is>
       </c>
     </row>
